--- a/results/results_evolution/Results evo - graphs.xlsx
+++ b/results/results_evolution/Results evo - graphs.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdgain\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei\Documents\GitHub\prettyGame_Game_Design_Essex_2\results\results_evolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$317</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,11 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Fitness</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000000000000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -61,14 +68,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF47620"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -81,7 +94,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2587,7 +2600,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8166-4A05-9003-89CE2F0F443D}"/>
             </c:ext>
@@ -2602,11 +2615,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1651018303"/>
-        <c:axId val="1651025791"/>
+        <c:axId val="346728360"/>
+        <c:axId val="346726008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1651018303"/>
+        <c:axId val="346728360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2649,7 +2662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1651025791"/>
+        <c:crossAx val="346726008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2657,7 +2670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1651025791"/>
+        <c:axId val="346726008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +2721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1651018303"/>
+        <c:crossAx val="346728360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2794,51 +2807,20 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="7"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2850,7 +2832,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2861,12 +2845,12 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="31750" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="F47620"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3334,7 +3318,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F8ED-4D6D-91F7-11D75D597B24}"/>
             </c:ext>
@@ -3349,9 +3333,9 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1649877535"/>
-        <c:axId val="1649885855"/>
-        <c:extLst>
+        <c:axId val="346727184"/>
+        <c:axId val="346729536"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -3360,7 +3344,9 @@
                 <c:spPr>
                   <a:ln w="28575" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="accent5">
+                        <a:shade val="76000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -3371,7 +3357,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$M$2:$M$152</c15:sqref>
@@ -3835,7 +3821,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-F8ED-4D6D-91F7-11D75D597B24}"/>
                   </c:ext>
@@ -3846,12 +3832,68 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1649877535"/>
+        <c:axId val="346727184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3889,7 +3931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1649885855"/>
+        <c:crossAx val="346729536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3897,7 +3939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1649885855"/>
+        <c:axId val="346729536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3917,6 +3959,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fitness value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3948,7 +4046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1649877535"/>
+        <c:crossAx val="346727184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3960,38 +4058,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4024,13 +4090,13 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4570,7 +4636,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-662F-4C81-8C78-0F0E7421DCF0}"/>
             </c:ext>
@@ -4585,9 +4651,9 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1648773695"/>
-        <c:axId val="1537897999"/>
-        <c:extLst>
+        <c:axId val="346727968"/>
+        <c:axId val="346729928"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -4607,7 +4673,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Y$2:$Y$153</c15:sqref>
@@ -5071,7 +5137,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-662F-4C81-8C78-0F0E7421DCF0}"/>
                   </c:ext>
@@ -5082,7 +5148,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1648773695"/>
+        <c:axId val="346727968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5124,7 +5190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1537897999"/>
+        <c:crossAx val="346729928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5132,7 +5198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1537897999"/>
+        <c:axId val="346729928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5183,7 +5249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1648773695"/>
+        <c:crossAx val="346727968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5305,42 +5371,8 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -7292,21 +7324,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z401"/>
+  <dimension ref="A1:Z401"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="33.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>-540</v>
       </c>
+      <c r="L2">
+        <f>AVERAGE(N:N)</f>
+        <v>591.10606713753077</v>
+      </c>
       <c r="M2">
         <v>1</v>
       </c>
@@ -7320,13 +7364,17 @@
         <v>394.75</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>-540</v>
       </c>
+      <c r="L3">
+        <f>_xlfn.STDEV.S(N:N)</f>
+        <v>509.35679620894405</v>
+      </c>
       <c r="M3">
         <v>2</v>
       </c>
@@ -7340,13 +7388,16 @@
         <v>1068.625</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>-227.25</v>
       </c>
+      <c r="L4">
+        <v>306.08992937016899</v>
+      </c>
       <c r="M4">
         <v>3</v>
       </c>
@@ -7360,7 +7411,7 @@
         <v>825.5625</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7380,7 +7431,7 @@
         <v>181.65625</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7400,7 +7451,7 @@
         <v>47.578125</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7420,7 +7471,7 @@
         <v>712.6640625</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7440,7 +7491,7 @@
         <v>1628.70703125</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7460,7 +7511,7 @@
         <v>1562.353515625</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7480,7 +7531,7 @@
         <v>836.4267578125</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7500,7 +7551,7 @@
         <v>220.83837890625</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7520,7 +7571,7 @@
         <v>809.669189453125</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7540,7 +7591,7 @@
         <v>979.70959472656205</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7560,7 +7611,7 @@
         <v>1207.4797973632801</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7580,7 +7631,7 @@
         <v>854.11489868164006</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7600,7 +7651,7 @@
         <v>1408.6824493408201</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7620,7 +7671,7 @@
         <v>1436.5912246704099</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7640,7 +7691,7 @@
         <v>693.04561233520496</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7660,7 +7711,7 @@
         <v>768.14780616760197</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7680,7 +7731,7 @@
         <v>962.32390308380104</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7700,7 +7751,7 @@
         <v>725.41195154189995</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7720,7 +7771,7 @@
         <v>486.33097577094998</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7740,7 +7791,7 @@
         <v>461.54048788547499</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7760,7 +7811,7 @@
         <v>770.39524394273701</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7780,7 +7831,7 @@
         <v>987.57262197136799</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7800,7 +7851,7 @@
         <v>274.411310985684</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7820,7 +7871,7 @@
         <v>569.95565549284197</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7840,7 +7891,7 @@
         <v>445.60282774642099</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7860,7 +7911,7 @@
         <v>463.17641387320998</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7880,7 +7931,7 @@
         <v>375.21320693660499</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7900,7 +7951,7 @@
         <v>661.98160346830196</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -7920,7 +7971,7 @@
         <v>311.49080173415098</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -7940,7 +7991,7 @@
         <v>283.87040086707498</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -7960,7 +8011,7 @@
         <v>753.18520043353703</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -7980,7 +8031,7 @@
         <v>900.21760021676801</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8000,7 +8051,7 @@
         <v>925.233800108384</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8020,7 +8071,7 @@
         <v>532.241900054192</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8040,7 +8091,7 @@
         <v>693.370950027096</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8060,7 +8111,7 @@
         <v>927.93547501354794</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8080,7 +8131,7 @@
         <v>427.21773750677397</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8100,7 +8151,7 @@
         <v>1441.35886875338</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8120,7 +8171,7 @@
         <v>1200.8044343766901</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8140,7 +8191,7 @@
         <v>678.15221718834596</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8160,7 +8211,7 @@
         <v>1029.2011085941699</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8180,7 +8231,7 @@
         <v>554.60055429708598</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8200,7 +8251,7 @@
         <v>502.42527714854299</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8220,7 +8271,7 @@
         <v>1002.33763857427</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8240,7 +8291,7 @@
         <v>258.79381928713502</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8260,7 +8311,7 @@
         <v>378.89690964356703</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8280,7 +8331,7 @@
         <v>756.44845482178403</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8300,7 +8351,7 @@
         <v>774.22422741089201</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8320,7 +8371,7 @@
         <v>943.73711370544595</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8340,7 +8391,7 @@
         <v>1034.9935568527201</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8360,7 +8411,7 @@
         <v>738.49677842636095</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8380,7 +8431,7 @@
         <v>692.37338921317996</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -8400,7 +8451,7 @@
         <v>683.43669460658998</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8420,7 +8471,7 @@
         <v>353.59334730329499</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8440,7 +8491,7 @@
         <v>766.04667365164698</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8460,7 +8511,7 @@
         <v>898.14833682582298</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8480,7 +8531,7 @@
         <v>1015.19916841291</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8500,7 +8551,7 @@
         <v>427.59958420645501</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8520,7 +8571,7 @@
         <v>418.42479210322699</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8540,7 +8591,7 @@
         <v>944.71239605161395</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8560,7 +8611,7 @@
         <v>1050.8561980258</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8580,7 +8631,7 @@
         <v>1256.9280990129</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8600,7 +8651,7 @@
         <v>493.96404950645098</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8620,7 +8671,7 @@
         <v>153.60702475322501</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8640,7 +8691,7 @@
         <v>-143.94648762338699</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8660,7 +8711,7 @@
         <v>271.40175618830602</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8680,7 +8731,7 @@
         <v>413.82587809415298</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8700,7 +8751,7 @@
         <v>854.28793904707595</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8720,7 +8771,7 @@
         <v>522.26896952353798</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8740,7 +8791,7 @@
         <v>474.75948476176899</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8760,7 +8811,7 @@
         <v>558.25474238088395</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8780,7 +8831,7 @@
         <v>538.12737119044198</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8800,7 +8851,7 @@
         <v>1049.56368559522</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8820,7 +8871,7 @@
         <v>629.28184279761001</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8840,7 +8891,7 @@
         <v>372.26592139880501</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8860,7 +8911,7 @@
         <v>567.75796069940202</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8880,7 +8931,7 @@
         <v>883.75398034970101</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8900,7 +8951,7 @@
         <v>809.62699017484999</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8920,7 +8971,7 @@
         <v>358.563495087425</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8940,7 +8991,7 @@
         <v>384.40674754371202</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8960,7 +9011,7 @@
         <v>30.328373771856299</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8980,7 +9031,7 @@
         <v>594.53918688592796</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9000,7 +9051,7 @@
         <v>661.76959344296404</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9020,7 +9071,7 @@
         <v>617.00979672148196</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9040,7 +9091,7 @@
         <v>438.00489836074098</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9060,7 +9111,7 @@
         <v>1287.2524491803699</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9080,7 +9131,7 @@
         <v>629.50122459018496</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9100,7 +9151,7 @@
         <v>1012.12561229509</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9120,7 +9171,7 @@
         <v>1013.93780614754</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9140,7 +9191,7 @@
         <v>644.46890307377305</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9160,7 +9211,7 @@
         <v>224.35945153688601</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9180,7 +9231,7 @@
         <v>440.55472576844301</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9200,7 +9251,7 @@
         <v>345.52736288422102</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9220,7 +9271,7 @@
         <v>-256.98631855788898</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -9240,7 +9291,7 @@
         <v>47.631840721055397</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -9260,7 +9311,7 @@
         <v>457.940920360527</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -9280,7 +9331,7 @@
         <v>359.09546018026299</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -9300,7 +9351,7 @@
         <v>981.92273009013195</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9320,7 +9371,7 @@
         <v>699.71136504506603</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9340,7 +9391,7 @@
         <v>1343.8556825225301</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9360,7 +9411,7 @@
         <v>844.42784126126605</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9380,7 +9431,7 @@
         <v>64.088920630633197</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9400,7 +9451,7 @@
         <v>190.294460315316</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9420,7 +9471,7 @@
         <v>172.89723015765799</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9440,7 +9491,7 @@
         <v>569.69861507882899</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9460,7 +9511,7 @@
         <v>-643.90069246058499</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9480,7 +9531,7 @@
         <v>-640.82534623029198</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9500,7 +9551,7 @@
         <v>1019.83732688485</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9520,7 +9571,7 @@
         <v>889.41866344242601</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9540,7 +9591,7 @@
         <v>80.709331721213402</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9560,7 +9611,7 @@
         <v>785.47966586060602</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9580,7 +9631,7 @@
         <v>678.23983293030301</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9600,7 +9651,7 @@
         <v>1124.86991646515</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9620,7 +9671,7 @@
         <v>1228.3099582325699</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9640,7 +9691,7 @@
         <v>1227.0299791162799</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9660,7 +9711,7 @@
         <v>876.26498955814395</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9680,7 +9731,7 @@
         <v>523.25749477907198</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9700,7 +9751,7 @@
         <v>573.87874738953599</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9720,7 +9771,7 @@
         <v>678.68937369476703</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9740,7 +9791,7 @@
         <v>957.09468684738397</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9760,7 +9811,7 @@
         <v>652.17234342369102</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9780,7 +9831,7 @@
         <v>671.83617171184596</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9800,7 +9851,7 @@
         <v>953.79308585592298</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9820,7 +9871,7 @@
         <v>1094.2715429279599</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9840,7 +9891,7 @@
         <v>1210.5107714639801</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9860,7 +9911,7 @@
         <v>1828.7553857319899</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9880,7 +9931,7 @@
         <v>879.75269286599496</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9900,7 +9951,7 @@
         <v>739.25134643299702</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9920,7 +9971,7 @@
         <v>1125.75067321649</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9940,7 +9991,7 @@
         <v>688.25033660824897</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9960,7 +10011,7 @@
         <v>-104.374831695875</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9980,7 +10031,7 @@
         <v>543.43758415206196</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -10000,7 +10051,7 @@
         <v>367.34379207603098</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -10020,7 +10071,7 @@
         <v>-26.5781039619844</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -10040,7 +10091,7 @@
         <v>209.46094801900699</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -10060,7 +10111,7 @@
         <v>352.98047400950298</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -10080,7 +10131,7 @@
         <v>7.2402370047519398</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -10100,7 +10151,7 @@
         <v>495.49511850237599</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -10120,7 +10171,7 @@
         <v>646.99755925118802</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -10140,7 +10191,7 @@
         <v>769.37377962559401</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -10160,7 +10211,7 @@
         <v>895.93688981279695</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -10180,7 +10231,7 @@
         <v>2010.21844490639</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -10200,7 +10251,7 @@
         <v>1350.1092224531899</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -10220,7 +10271,7 @@
         <v>801.92961122659904</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -10240,7 +10291,7 @@
         <v>746.96480561329895</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -10260,7 +10311,7 @@
         <v>718.48240280664902</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10280,7 +10331,7 @@
         <v>1050.49120140332</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10300,7 +10351,7 @@
         <v>1389.3706007016599</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10308,7 +10359,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10316,7 +10367,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10324,7 +10375,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10332,7 +10383,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10340,7 +10391,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -10348,7 +10399,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10356,7 +10407,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10364,7 +10415,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10372,7 +10423,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10380,7 +10431,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10388,7 +10439,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10396,7 +10447,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10404,7 +10455,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10412,7 +10463,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10420,7 +10471,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10428,7 +10479,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10436,7 +10487,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10444,7 +10495,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10452,7 +10503,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10460,7 +10511,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10468,7 +10519,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10476,7 +10527,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10484,7 +10535,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10492,7 +10543,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10500,7 +10551,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10508,7 +10559,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10516,7 +10567,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10524,7 +10575,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10532,7 +10583,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10540,7 +10591,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10548,7 +10599,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10556,7 +10607,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10564,7 +10615,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10572,7 +10623,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10580,7 +10631,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10588,7 +10639,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10596,7 +10647,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10604,7 +10655,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10612,7 +10663,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10620,7 +10671,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10628,7 +10679,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10636,7 +10687,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -10644,7 +10695,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -10652,7 +10703,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -10660,7 +10711,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10668,7 +10719,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10676,7 +10727,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10684,7 +10735,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10692,7 +10743,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10700,7 +10751,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10708,7 +10759,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10716,7 +10767,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10724,7 +10775,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10732,7 +10783,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10740,7 +10791,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10748,7 +10799,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10756,7 +10807,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10764,7 +10815,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10772,7 +10823,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10780,7 +10831,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10788,7 +10839,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10796,7 +10847,7 @@
         <v>2199.44091796875</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10804,7 +10855,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10812,7 +10863,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10820,7 +10871,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10828,7 +10879,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10836,7 +10887,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10844,7 +10895,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10852,7 +10903,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10860,7 +10911,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10868,7 +10919,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10876,7 +10927,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10884,7 +10935,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10892,7 +10943,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10900,7 +10951,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10908,7 +10959,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10916,7 +10967,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10924,7 +10975,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10932,7 +10983,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10940,7 +10991,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10948,7 +10999,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10956,7 +11007,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10964,7 +11015,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10972,7 +11023,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10980,7 +11031,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10988,7 +11039,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10996,7 +11047,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11004,7 +11055,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11012,7 +11063,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11020,7 +11071,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11028,7 +11079,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11036,7 +11087,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11044,7 +11095,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11052,7 +11103,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11060,7 +11111,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11068,7 +11119,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11076,7 +11127,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11084,7 +11135,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11092,7 +11143,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11100,7 +11151,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11108,7 +11159,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11116,7 +11167,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11124,7 +11175,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11132,7 +11183,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -11140,7 +11191,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -11148,7 +11199,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11156,7 +11207,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11164,7 +11215,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -11172,7 +11223,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -11180,7 +11231,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11188,7 +11239,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11196,7 +11247,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -11204,7 +11255,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -11212,7 +11263,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -11220,7 +11271,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -11228,7 +11279,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -11236,7 +11287,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -11244,7 +11295,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -11252,7 +11303,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -11260,7 +11311,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -11268,7 +11319,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -11276,7 +11327,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -11284,7 +11335,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -11292,7 +11343,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -11300,7 +11351,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -11308,7 +11359,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -11316,7 +11367,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -11324,7 +11375,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -11332,7 +11383,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -11340,7 +11391,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -11348,7 +11399,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -11356,7 +11407,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -11364,7 +11415,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -11372,7 +11423,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -11380,7 +11431,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -11388,7 +11439,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -11396,7 +11447,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -11404,7 +11455,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -11412,7 +11463,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -11420,7 +11471,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -11428,7 +11479,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -11436,7 +11487,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -11444,7 +11495,7 @@
         <v>2225.84545898437</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -11452,7 +11503,7 @@
         <v>2250.9227294921802</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -11460,7 +11511,7 @@
         <v>2250.9227294921802</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -11468,7 +11519,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -11476,7 +11527,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -11484,7 +11535,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -11492,7 +11543,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -11500,7 +11551,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -11508,7 +11559,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -11516,7 +11567,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -11524,7 +11575,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -11532,7 +11583,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -11540,7 +11591,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -11548,7 +11599,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -11556,7 +11607,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -11564,7 +11615,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -11572,7 +11623,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -11580,7 +11631,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -11588,7 +11639,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -11596,7 +11647,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -11604,7 +11655,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -11612,7 +11663,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -11620,7 +11671,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -11628,7 +11679,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -11636,7 +11687,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -11644,7 +11695,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -11652,7 +11703,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -11660,7 +11711,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -11668,7 +11719,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -11676,7 +11727,7 @@
         <v>2337.5863647460901</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -11684,7 +11735,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -11692,7 +11743,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -11700,7 +11751,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -11708,7 +11759,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -11716,7 +11767,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -11724,7 +11775,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -11732,7 +11783,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -11740,7 +11791,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -11748,7 +11799,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -11756,7 +11807,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -11764,7 +11815,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -11772,7 +11823,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -11780,7 +11831,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -11788,7 +11839,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -11796,7 +11847,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -11804,7 +11855,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -11812,7 +11863,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -11820,7 +11871,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -11828,7 +11879,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -11836,7 +11887,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -11844,7 +11895,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -11852,7 +11903,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -11860,7 +11911,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -11868,7 +11919,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -11876,7 +11927,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -11884,7 +11935,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -11892,7 +11943,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -11900,7 +11951,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -11908,7 +11959,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -11916,7 +11967,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -11924,7 +11975,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -11932,7 +11983,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -11940,7 +11991,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -11948,7 +11999,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -11956,7 +12007,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -11964,7 +12015,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -11972,7 +12023,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -11980,7 +12031,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -11988,7 +12039,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -11996,7 +12047,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -12004,7 +12055,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -12012,7 +12063,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -12020,7 +12071,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -12028,7 +12079,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -12036,7 +12087,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -12044,7 +12095,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -12052,7 +12103,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -12060,7 +12111,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -12068,7 +12119,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -12076,7 +12127,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -12084,7 +12135,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -12092,7 +12143,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -12100,7 +12151,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -12108,7 +12159,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -12116,7 +12167,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -12124,7 +12175,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -12132,7 +12183,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -12140,7 +12191,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -12148,7 +12199,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -12156,7 +12207,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -12164,7 +12215,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -12172,7 +12223,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -12180,7 +12231,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -12188,7 +12239,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -12196,7 +12247,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -12204,7 +12255,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -12212,7 +12263,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -12220,7 +12271,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -12228,7 +12279,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -12236,7 +12287,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
@@ -12244,7 +12295,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -12252,7 +12303,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -12260,7 +12311,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
@@ -12268,7 +12319,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -12276,7 +12327,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -12284,7 +12335,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -12292,7 +12343,7 @@
         <v>2635.2931823730401</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -12302,6 +12353,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>